--- a/excel2mysql/excels/free_limit.xlsx
+++ b/excel2mysql/excels/free_limit.xlsx
@@ -19,18 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>free_name</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>varchar(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>free_type</t>
   </si>
   <si>
+    <t>varchar(11)||</t>
+  </si>
+  <si>
     <t>free_begin</t>
+  </si>
+  <si>
+    <t>timestamp||on update CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <t>free_end</t>
@@ -369,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,13 +389,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -394,26 +403,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>43027.708333333336</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>43037</v>
       </c>
     </row>
